--- a/cs-models/eai/cms/smk.dk/SMKCO7006.xlsx
+++ b/cs-models/eai/cms/smk.dk/SMKCO7006.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Property name</t>
   </si>
   <si>
-    <t>Danish term</t>
-  </si>
-  <si>
     <t>Imported from CMS (Y/N)</t>
   </si>
   <si>
@@ -64,79 +61,7 @@
     <t>(system)API Search Criteria Mapping</t>
   </si>
   <si>
-    <t>(system)API Search Form </t>
-  </si>
-  <si>
-    <t>(system)API Search Form Sorting </t>
-  </si>
-  <si>
-    <t>Image Dimensions</t>
-  </si>
-  <si>
-    <t> Billedmål</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t> R</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>an..180</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>The image size of paintings, works on paper, and photographs may be smaller than the dimensions of the work.</t>
-  </si>
-  <si>
-    <t>85 x 203 cm</t>
-  </si>
-  <si>
-    <t> smk:imageDimensions</t>
-  </si>
-  <si>
-    <t>please, add the name of the property in the  CMS</t>
-  </si>
-  <si>
-    <t>Home Location</t>
-  </si>
-  <si>
-    <t>KKS/KAS placering</t>
-  </si>
-  <si>
-    <t>an...180</t>
-  </si>
-  <si>
-    <t>The place within the organization where an object is normally located</t>
-  </si>
-  <si>
-    <t>smk:homeLocation</t>
-  </si>
-  <si>
-    <t>Micro Climate Frame</t>
-  </si>
-  <si>
-    <t>Mikroklimaramme</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>An indication of whether the object is mounted in a micro climate frame or not</t>
-  </si>
-  <si>
-    <t>the property is displayed as a Tickbox in CMS</t>
-  </si>
-  <si>
-    <t>smk:inMicroClimateFrame</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>(system)API Property Mapping</t>
   </si>
 </sst>
 </file>
@@ -172,8 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,185 +456,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
